--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studies\Year A Sem B\Intro to Statistics\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A8E25E-CF9B-46D5-9DDD-70D051D50B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A52440-C85D-46C5-A9BA-A6009F84B57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB8480DA-4085-4F65-9886-30EF62D2DD38}"/>
   </bookViews>
@@ -759,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2652476F-FC09-4425-821E-CECA66986FAC}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,17 +880,17 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="1">
-        <v>0.57599999999999996</v>
+        <v>0.48459999999999998</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
@@ -999,17 +999,17 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1">
-        <v>0.98299999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>6</v>
@@ -1237,17 +1237,17 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>52.5</v>
+        <v>56.5</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="3"/>
-        <v>352.5</v>
+        <v>356.5</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G23" s="1">
-        <v>0.17599999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>6</v>
@@ -1359,17 +1359,17 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>53.5</v>
+        <v>57.5</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="4"/>
-        <v>353.5</v>
+        <v>357.5</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="1">
-        <v>0.156</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>6</v>
@@ -1389,8 +1389,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF8BA7DE477F3446865215AD96F68BC1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="712890d8b247e388906a591dbe84e72e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c59d9f10-5f45-47e1-9538-4f341ec0dbef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="20bdc581e2bd72745e5c359b924c6aa9" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF8BA7DE477F3446865215AD96F68BC1" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6051c7b7ec4769e9c02a70a499745976">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c59d9f10-5f45-47e1-9538-4f341ec0dbef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e48bf4b945c229372768bbdcd10df08" ns2:_="">
     <xsd:import namespace="c59d9f10-5f45-47e1-9538-4f341ec0dbef"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1400,6 +1400,10 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1418,6 +1422,28 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1536,13 +1562,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08B53545-3626-408D-A0E6-77BA7448A6AA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A53296CC-D94B-4773-9098-A597C84AEA48}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFFF4184-C567-4AF0-8973-8B745E942C39}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{633FF781-EC8F-440F-8A3D-EFA0071A3DC2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D2E319-47C7-4F65-A4D9-DCAAC34D17C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{200F2423-E547-46AB-8588-BFD8C4719A08}"/>
 </file>